--- a/Thesis_project/01_data-input/National/RS/life_expectancy.xlsx
+++ b/Thesis_project/01_data-input/National/RS/life_expectancy.xlsx
@@ -1,26 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\National\RS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\National\RS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50E6A9-8243-493A-9C3B-6C4E7844860D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B3D39-762B-4452-8D2B-69541F101DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportedData" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_clean!$A$1:$D$49</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="207">
   <si>
     <t>IDIndikator</t>
   </si>
@@ -629,16 +646,33 @@
   </si>
   <si>
     <t>77.7175</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Life_expectancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -661,8 +695,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7804,4 +7841,710 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE9CFD4-EA19-4012-A6EB-ED1308DF8495}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D49" xr:uid="{CCE9CFD4-EA19-4012-A6EB-ED1308DF8495}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>